--- a/footprints.xlsx
+++ b/footprints.xlsx
@@ -552,13 +552,13 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>43.59163834561823</v>
+        <v>43.59163834560552</v>
       </c>
       <c r="C2">
-        <v>33.6870015388355</v>
+        <v>33.68700153881799</v>
       </c>
       <c r="D2">
-        <v>44.54200221933364</v>
+        <v>44.54200221933983</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -566,13 +566,13 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>62.22037985068946</v>
+        <v>62.22037985068194</v>
       </c>
       <c r="C3">
-        <v>53.71445327132803</v>
+        <v>53.71445327132621</v>
       </c>
       <c r="D3">
-        <v>55.83895923802991</v>
+        <v>55.83895923802758</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -580,13 +580,13 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>34.20132479538303</v>
+        <v>34.2013247953663</v>
       </c>
       <c r="C4">
-        <v>25.91558036587688</v>
+        <v>25.91558036586404</v>
       </c>
       <c r="D4">
-        <v>33.93924910334591</v>
+        <v>33.93924910334658</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -594,13 +594,13 @@
         <v>7</v>
       </c>
       <c r="B5">
-        <v>65.31566886823093</v>
+        <v>65.31566886820625</v>
       </c>
       <c r="C5">
-        <v>47.48946758417029</v>
+        <v>47.48946758418124</v>
       </c>
       <c r="D5">
-        <v>57.72684498040659</v>
+        <v>57.72684498059444</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -608,13 +608,13 @@
         <v>8</v>
       </c>
       <c r="B6">
-        <v>21.59714398111019</v>
+        <v>21.59714398111175</v>
       </c>
       <c r="C6">
-        <v>20.82788481004459</v>
+        <v>20.82788481004951</v>
       </c>
       <c r="D6">
-        <v>21.60414120775898</v>
+        <v>21.60414120774838</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -622,13 +622,13 @@
         <v>9</v>
       </c>
       <c r="B7">
-        <v>45.44557868891953</v>
+        <v>45.445578688912</v>
       </c>
       <c r="C7">
-        <v>38.06994933676467</v>
+        <v>38.0699493367692</v>
       </c>
       <c r="D7">
-        <v>43.57323984926443</v>
+        <v>43.57323984925853</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -636,13 +636,13 @@
         <v>10</v>
       </c>
       <c r="B8">
-        <v>31.17745687962519</v>
+        <v>31.17745687962574</v>
       </c>
       <c r="C8">
-        <v>33.412105558346</v>
+        <v>33.41210555835896</v>
       </c>
       <c r="D8">
-        <v>32.96685159550108</v>
+        <v>32.9668515955231</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -650,13 +650,13 @@
         <v>11</v>
       </c>
       <c r="B9">
-        <v>83.12911655546704</v>
+        <v>83.12911655545818</v>
       </c>
       <c r="C9">
-        <v>80.39923753049139</v>
+        <v>80.39923753048055</v>
       </c>
       <c r="D9">
-        <v>85.10865184518721</v>
+        <v>85.10865184518886</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -664,13 +664,13 @@
         <v>12</v>
       </c>
       <c r="B10">
-        <v>70.58933020047705</v>
+        <v>70.5893302004559</v>
       </c>
       <c r="C10">
-        <v>75.37717886312569</v>
+        <v>75.37717886332202</v>
       </c>
       <c r="D10">
-        <v>92.55426945182941</v>
+        <v>92.55426945210493</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -678,13 +678,13 @@
         <v>13</v>
       </c>
       <c r="B11">
-        <v>84.36759528240096</v>
+        <v>84.36759528236909</v>
       </c>
       <c r="C11">
-        <v>72.35493180643803</v>
+        <v>72.3549318065689</v>
       </c>
       <c r="D11">
-        <v>79.32357377917563</v>
+        <v>79.32357377937842</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -692,13 +692,13 @@
         <v>14</v>
       </c>
       <c r="B12">
-        <v>52.9471424041587</v>
+        <v>52.94714240415751</v>
       </c>
       <c r="C12">
-        <v>40.07183878366896</v>
+        <v>40.07183878365237</v>
       </c>
       <c r="D12">
-        <v>50.0983782087788</v>
+        <v>50.09837820878275</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -706,13 +706,13 @@
         <v>15</v>
       </c>
       <c r="B13">
-        <v>41.35328616527512</v>
+        <v>41.35328616527343</v>
       </c>
       <c r="C13">
-        <v>49.24801083412337</v>
+        <v>49.24801083438491</v>
       </c>
       <c r="D13">
-        <v>50.81675406893512</v>
+        <v>50.81675406921465</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -720,13 +720,13 @@
         <v>16</v>
       </c>
       <c r="B14">
-        <v>56.91502147563941</v>
+        <v>56.91502147567003</v>
       </c>
       <c r="C14">
-        <v>52.6773661946839</v>
+        <v>52.67736619467398</v>
       </c>
       <c r="D14">
-        <v>58.63790063070515</v>
+        <v>58.63790063068734</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -734,13 +734,13 @@
         <v>17</v>
       </c>
       <c r="B15">
-        <v>27.39198973868829</v>
+        <v>27.39198973865176</v>
       </c>
       <c r="C15">
-        <v>21.61905002091946</v>
+        <v>21.61905002090086</v>
       </c>
       <c r="D15">
-        <v>29.57902700890774</v>
+        <v>29.5790270089253</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -748,13 +748,13 @@
         <v>18</v>
       </c>
       <c r="B16">
-        <v>42.30873323253078</v>
+        <v>42.30873323249113</v>
       </c>
       <c r="C16">
-        <v>36.76159686313855</v>
+        <v>36.76159686315574</v>
       </c>
       <c r="D16">
-        <v>39.92508584652658</v>
+        <v>39.92508584653299</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -762,13 +762,13 @@
         <v>19</v>
       </c>
       <c r="B17">
-        <v>43.09481853461209</v>
+        <v>43.09481853462169</v>
       </c>
       <c r="C17">
-        <v>44.15226414604586</v>
+        <v>44.15226414608404</v>
       </c>
       <c r="D17">
-        <v>47.76986446966103</v>
+        <v>47.76986446966652</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -776,13 +776,13 @@
         <v>20</v>
       </c>
       <c r="B18">
-        <v>38.85190256495495</v>
+        <v>38.85190256496871</v>
       </c>
       <c r="C18">
-        <v>29.87148193617369</v>
+        <v>29.87148193613448</v>
       </c>
       <c r="D18">
-        <v>38.9534869948864</v>
+        <v>38.95348699490175</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -790,13 +790,13 @@
         <v>21</v>
       </c>
       <c r="B19">
-        <v>67.58123710625787</v>
+        <v>67.58123710626089</v>
       </c>
       <c r="C19">
-        <v>53.54946630543632</v>
+        <v>53.54946630544881</v>
       </c>
       <c r="D19">
-        <v>61.99429322278958</v>
+        <v>61.99429322276653</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -804,13 +804,13 @@
         <v>22</v>
       </c>
       <c r="B20">
-        <v>67.31178111553862</v>
+        <v>67.31178111556743</v>
       </c>
       <c r="C20">
-        <v>68.28112211594342</v>
+        <v>68.28112211596651</v>
       </c>
       <c r="D20">
-        <v>92.44452950883247</v>
+        <v>92.44452950893114</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -818,13 +818,13 @@
         <v>23</v>
       </c>
       <c r="B21">
-        <v>46.84771038666729</v>
+        <v>46.84771038668232</v>
       </c>
       <c r="C21">
-        <v>35.31279684452878</v>
+        <v>35.31279684456659</v>
       </c>
       <c r="D21">
-        <v>45.20903183657334</v>
+        <v>45.20903183676453</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -832,13 +832,13 @@
         <v>24</v>
       </c>
       <c r="B22">
-        <v>93.02344139758833</v>
+        <v>93.02344139748631</v>
       </c>
       <c r="C22">
-        <v>77.46599869077509</v>
+        <v>77.46599869070562</v>
       </c>
       <c r="D22">
-        <v>85.68356792573199</v>
+        <v>85.68356792565694</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -846,13 +846,13 @@
         <v>25</v>
       </c>
       <c r="B23">
-        <v>38.26509245799652</v>
+        <v>38.26509245801047</v>
       </c>
       <c r="C23">
-        <v>41.88985110477778</v>
+        <v>41.88985110486191</v>
       </c>
       <c r="D23">
-        <v>44.34731748376406</v>
+        <v>44.34731748394536</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -860,13 +860,13 @@
         <v>26</v>
       </c>
       <c r="B24">
-        <v>100.4315316324279</v>
+        <v>100.4315316324218</v>
       </c>
       <c r="C24">
-        <v>72.19343092617888</v>
+        <v>72.19343092623272</v>
       </c>
       <c r="D24">
-        <v>84.08847786107405</v>
+        <v>84.08847786114049</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -874,13 +874,13 @@
         <v>27</v>
       </c>
       <c r="B25">
-        <v>67.12230080674723</v>
+        <v>67.12230080674995</v>
       </c>
       <c r="C25">
-        <v>49.09541830964711</v>
+        <v>49.09541830964331</v>
       </c>
       <c r="D25">
-        <v>61.46692305830008</v>
+        <v>61.46692305829972</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -888,13 +888,13 @@
         <v>28</v>
       </c>
       <c r="B26">
-        <v>71.00923507759074</v>
+        <v>71.00923507755903</v>
       </c>
       <c r="C26">
-        <v>53.08705790241792</v>
+        <v>53.08705790242317</v>
       </c>
       <c r="D26">
-        <v>63.07808737301927</v>
+        <v>63.07808737303417</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -902,13 +902,13 @@
         <v>29</v>
       </c>
       <c r="B27">
-        <v>101.0371283201483</v>
+        <v>101.0371283200779</v>
       </c>
       <c r="C27">
-        <v>114.5366229150995</v>
+        <v>114.5366229150276</v>
       </c>
       <c r="D27">
-        <v>105.4896392664579</v>
+        <v>105.4896392664067</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -916,13 +916,13 @@
         <v>30</v>
       </c>
       <c r="B28">
-        <v>56.89450191496697</v>
+        <v>56.89450191495735</v>
       </c>
       <c r="C28">
-        <v>52.12475460088764</v>
+        <v>52.12475460087984</v>
       </c>
       <c r="D28">
-        <v>61.76496674164599</v>
+        <v>61.76496674166857</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -930,13 +930,13 @@
         <v>31</v>
       </c>
       <c r="B29">
-        <v>41.98678072011969</v>
+        <v>41.98678072010747</v>
       </c>
       <c r="C29">
-        <v>42.45393739373015</v>
+        <v>42.45393739373337</v>
       </c>
       <c r="D29">
-        <v>43.41874764961742</v>
+        <v>43.41874764962718</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -944,13 +944,13 @@
         <v>32</v>
       </c>
       <c r="B30">
-        <v>53.95826673110527</v>
+        <v>53.95826673108189</v>
       </c>
       <c r="C30">
-        <v>52.06885433977128</v>
+        <v>52.06885433975418</v>
       </c>
       <c r="D30">
-        <v>61.41468415403919</v>
+        <v>61.41468415405209</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -958,13 +958,13 @@
         <v>33</v>
       </c>
       <c r="B31">
-        <v>20.30742737852042</v>
+        <v>20.30742737852825</v>
       </c>
       <c r="C31">
-        <v>33.46955956596231</v>
+        <v>33.4695595661413</v>
       </c>
       <c r="D31">
-        <v>34.2299490534669</v>
+        <v>34.22994905351453</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -972,13 +972,13 @@
         <v>34</v>
       </c>
       <c r="B32">
-        <v>54.31086965151725</v>
+        <v>54.31086965150902</v>
       </c>
       <c r="C32">
-        <v>39.37121963596453</v>
+        <v>39.37121963589789</v>
       </c>
       <c r="D32">
-        <v>48.5531231218349</v>
+        <v>48.55312312180118</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -986,13 +986,13 @@
         <v>35</v>
       </c>
       <c r="B33">
-        <v>55.69450903470714</v>
+        <v>55.69450903469122</v>
       </c>
       <c r="C33">
-        <v>41.46270304069485</v>
+        <v>41.46270304064971</v>
       </c>
       <c r="D33">
-        <v>51.4731752877094</v>
+        <v>51.47317528767589</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -1000,13 +1000,13 @@
         <v>36</v>
       </c>
       <c r="B34">
-        <v>22.28740813010213</v>
+        <v>22.28740813015425</v>
       </c>
       <c r="C34">
-        <v>21.11263260327238</v>
+        <v>21.11263260325514</v>
       </c>
       <c r="D34">
-        <v>24.11313449956385</v>
+        <v>24.11313449957503</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -1014,13 +1014,13 @@
         <v>37</v>
       </c>
       <c r="B35">
-        <v>88.20107318144332</v>
+        <v>88.20107318147582</v>
       </c>
       <c r="C35">
-        <v>86.11679745901905</v>
+        <v>86.11679745904493</v>
       </c>
       <c r="D35">
-        <v>87.37860948613448</v>
+        <v>87.37860948632166</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -1028,13 +1028,13 @@
         <v>38</v>
       </c>
       <c r="B36">
-        <v>22.03554878838386</v>
+        <v>22.03554878836278</v>
       </c>
       <c r="C36">
-        <v>17.36219749247004</v>
+        <v>17.36219749244167</v>
       </c>
       <c r="D36">
-        <v>23.42819494356797</v>
+        <v>23.42819494355437</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -1042,13 +1042,13 @@
         <v>39</v>
       </c>
       <c r="B37">
-        <v>74.10347248729077</v>
+        <v>74.10347248726494</v>
       </c>
       <c r="C37">
-        <v>53.70391856764511</v>
+        <v>53.70391856760934</v>
       </c>
       <c r="D37">
-        <v>68.24642134765571</v>
+        <v>68.2464213479399</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -1056,13 +1056,13 @@
         <v>40</v>
       </c>
       <c r="B38">
-        <v>79.11076297335535</v>
+        <v>79.11076297330058</v>
       </c>
       <c r="C38">
-        <v>69.52782998777175</v>
+        <v>69.5278299877299</v>
       </c>
       <c r="D38">
-        <v>75.79658193181858</v>
+        <v>75.79658193176628</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -1070,13 +1070,13 @@
         <v>41</v>
       </c>
       <c r="B39">
-        <v>25.29035203061651</v>
+        <v>25.29035203060509</v>
       </c>
       <c r="C39">
-        <v>19.68737734299174</v>
+        <v>19.68737734295507</v>
       </c>
       <c r="D39">
-        <v>26.44260115650944</v>
+        <v>26.44260115651526</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -1084,13 +1084,13 @@
         <v>42</v>
       </c>
       <c r="B40">
-        <v>63.02333411552829</v>
+        <v>63.02333411551123</v>
       </c>
       <c r="C40">
-        <v>59.33478841632653</v>
+        <v>59.33478841644541</v>
       </c>
       <c r="D40">
-        <v>63.3861344808397</v>
+        <v>63.38613448100399</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -1098,13 +1098,13 @@
         <v>43</v>
       </c>
       <c r="B41">
-        <v>79.787425980314</v>
+        <v>79.78742598024895</v>
       </c>
       <c r="C41">
-        <v>69.89490723315178</v>
+        <v>69.89490723324111</v>
       </c>
       <c r="D41">
-        <v>76.26518976156255</v>
+        <v>76.26518976175447</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -1112,13 +1112,13 @@
         <v>44</v>
       </c>
       <c r="B42">
-        <v>68.25160556302365</v>
+        <v>68.25160556304937</v>
       </c>
       <c r="C42">
-        <v>67.58436042333376</v>
+        <v>67.58436042322373</v>
       </c>
       <c r="D42">
-        <v>65.41446644525726</v>
+        <v>65.41446644522435</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -1126,13 +1126,13 @@
         <v>45</v>
       </c>
       <c r="B43">
-        <v>58.85049838789674</v>
+        <v>58.85049838786862</v>
       </c>
       <c r="C43">
-        <v>43.56834465142425</v>
+        <v>43.56834465144687</v>
       </c>
       <c r="D43">
-        <v>53.34876334768916</v>
+        <v>53.34876334769473</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -1140,13 +1140,13 @@
         <v>46</v>
       </c>
       <c r="B44">
-        <v>87.9634191720352</v>
+        <v>87.96341917200768</v>
       </c>
       <c r="C44">
-        <v>64.70282614070773</v>
+        <v>64.70282614072794</v>
       </c>
       <c r="D44">
-        <v>80.07231657602014</v>
+        <v>80.07231657604686</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1154,13 +1154,13 @@
         <v>47</v>
       </c>
       <c r="B45">
-        <v>108.2144218458915</v>
+        <v>108.2144218459599</v>
       </c>
       <c r="C45">
-        <v>111.3209353718248</v>
+        <v>111.3209353718479</v>
       </c>
       <c r="D45">
-        <v>104.0616694795949</v>
+        <v>104.0616694796631</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1168,13 +1168,13 @@
         <v>48</v>
       </c>
       <c r="B46">
-        <v>55.51040738154471</v>
+        <v>55.51040738164549</v>
       </c>
       <c r="C46">
-        <v>51.95429109544557</v>
+        <v>51.95429109556157</v>
       </c>
       <c r="D46">
-        <v>51.59090314784817</v>
+        <v>51.59090314791123</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1182,13 +1182,13 @@
         <v>49</v>
       </c>
       <c r="B47">
-        <v>44.86274329919177</v>
+        <v>44.86274329918177</v>
       </c>
       <c r="C47">
-        <v>42.11541492422086</v>
+        <v>42.11541492421686</v>
       </c>
       <c r="D47">
-        <v>46.98745263017619</v>
+        <v>46.9874526302014</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1196,13 +1196,13 @@
         <v>50</v>
       </c>
       <c r="B48">
-        <v>69.22181872944999</v>
+        <v>69.22181872943298</v>
       </c>
       <c r="C48">
-        <v>50.62751318870081</v>
+        <v>50.62751318867323</v>
       </c>
       <c r="D48">
-        <v>60.89725693518799</v>
+        <v>60.89725693519265</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1210,13 +1210,13 @@
         <v>51</v>
       </c>
       <c r="B49">
-        <v>92.25452429212166</v>
+        <v>92.25452429292844</v>
       </c>
       <c r="C49">
-        <v>82.97630886071455</v>
+        <v>82.97630886154334</v>
       </c>
       <c r="D49">
-        <v>81.78421081768064</v>
+        <v>81.78421081842907</v>
       </c>
     </row>
   </sheetData>

--- a/footprints.xlsx
+++ b/footprints.xlsx
@@ -14,7 +14,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
+  <si>
+    <t>Electric vehicles</t>
+  </si>
   <si>
     <t>LFP batteries</t>
   </si>
@@ -527,15 +530,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D49"/>
+  <dimension ref="A1:E49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -546,677 +549,824 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>43.59163834560552</v>
+        <v>284.6765972570752</v>
       </c>
       <c r="C2">
-        <v>33.68700153881799</v>
+        <v>43.59163834559694</v>
       </c>
       <c r="D2">
-        <v>44.54200221933983</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>33.68700153881804</v>
+      </c>
+      <c r="E2">
+        <v>44.54200221931511</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B3">
-        <v>62.22037985068194</v>
+        <v>518.0198425545517</v>
       </c>
       <c r="C3">
-        <v>53.71445327132621</v>
+        <v>62.22037985067686</v>
       </c>
       <c r="D3">
-        <v>55.83895923802758</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>53.71445327132392</v>
+      </c>
+      <c r="E3">
+        <v>55.8389592380217</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>34.2013247953663</v>
+        <v>364.2302861827304</v>
       </c>
       <c r="C4">
-        <v>25.91558036586404</v>
+        <v>34.20132479537992</v>
       </c>
       <c r="D4">
-        <v>33.93924910334658</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>25.915580365872</v>
+      </c>
+      <c r="E4">
+        <v>33.93924910335491</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B5">
-        <v>65.31566886820625</v>
+        <v>474.6437395691016</v>
       </c>
       <c r="C5">
-        <v>47.48946758418124</v>
+        <v>65.31566886821176</v>
       </c>
       <c r="D5">
-        <v>57.72684498059444</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>47.48946758414109</v>
+      </c>
+      <c r="E5">
+        <v>57.72684498046377</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>21.59714398111175</v>
+        <v>259.8270179327704</v>
       </c>
       <c r="C6">
-        <v>20.82788481004951</v>
+        <v>21.59714398110639</v>
       </c>
       <c r="D6">
-        <v>21.60414120774838</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>20.82788481004555</v>
+      </c>
+      <c r="E6">
+        <v>21.60414120774525</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B7">
-        <v>45.445578688912</v>
+        <v>390.8977054541473</v>
       </c>
       <c r="C7">
-        <v>38.0699493367692</v>
+        <v>45.44557868891179</v>
       </c>
       <c r="D7">
-        <v>43.57323984925853</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>38.06994933676269</v>
+      </c>
+      <c r="E7">
+        <v>43.57323984925813</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B8">
-        <v>31.17745687962574</v>
+        <v>199.7013080817844</v>
       </c>
       <c r="C8">
-        <v>33.41210555835896</v>
+        <v>31.17745687960738</v>
       </c>
       <c r="D8">
-        <v>32.9668515955231</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>33.41210555831133</v>
+      </c>
+      <c r="E8">
+        <v>32.96685159548559</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B9">
-        <v>83.12911655545818</v>
+        <v>1275.342995313817</v>
       </c>
       <c r="C9">
-        <v>80.39923753048055</v>
+        <v>83.12911655546095</v>
       </c>
       <c r="D9">
-        <v>85.10865184518886</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>80.39923753047741</v>
+      </c>
+      <c r="E9">
+        <v>85.10865184518454</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B10">
-        <v>70.5893302004559</v>
+        <v>741.2314766734587</v>
       </c>
       <c r="C10">
-        <v>75.37717886332202</v>
+        <v>70.58933020049169</v>
       </c>
       <c r="D10">
-        <v>92.55426945210493</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>75.37717886302011</v>
+      </c>
+      <c r="E10">
+        <v>92.55426945192988</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B11">
-        <v>84.36759528236909</v>
+        <v>501.8891685676523</v>
       </c>
       <c r="C11">
-        <v>72.3549318065689</v>
+        <v>84.36759528237536</v>
       </c>
       <c r="D11">
-        <v>79.32357377937842</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>72.35493180646012</v>
+      </c>
+      <c r="E11">
+        <v>79.32357377923196</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B12">
-        <v>52.94714240415751</v>
+        <v>351.9540897800937</v>
       </c>
       <c r="C12">
-        <v>40.07183878365237</v>
+        <v>52.9471424041302</v>
       </c>
       <c r="D12">
-        <v>50.09837820878275</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>40.07183878366355</v>
+      </c>
+      <c r="E12">
+        <v>50.09837820875889</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B13">
-        <v>41.35328616527343</v>
+        <v>544.8494618273347</v>
       </c>
       <c r="C13">
-        <v>49.24801083438491</v>
+        <v>41.3532861652487</v>
       </c>
       <c r="D13">
-        <v>50.81675406921465</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>49.2480108340549</v>
+      </c>
+      <c r="E13">
+        <v>50.81675406896314</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B14">
-        <v>56.91502147567003</v>
+        <v>494.2776288825972</v>
       </c>
       <c r="C14">
-        <v>52.67736619467398</v>
+        <v>56.91502147570706</v>
       </c>
       <c r="D14">
-        <v>58.63790063068734</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>52.67736619464497</v>
+      </c>
+      <c r="E14">
+        <v>58.63790063066659</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B15">
-        <v>27.39198973865176</v>
+        <v>321.2114439127073</v>
       </c>
       <c r="C15">
-        <v>21.61905002090086</v>
+        <v>27.39198973863135</v>
       </c>
       <c r="D15">
-        <v>29.5790270089253</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>21.61905002086628</v>
+      </c>
+      <c r="E15">
+        <v>29.57902700891609</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B16">
-        <v>42.30873323249113</v>
+        <v>374.3744301228441</v>
       </c>
       <c r="C16">
-        <v>36.76159686315574</v>
+        <v>42.30873323248083</v>
       </c>
       <c r="D16">
-        <v>39.92508584653299</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>36.76159686315025</v>
+      </c>
+      <c r="E16">
+        <v>39.92508584650475</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B17">
-        <v>43.09481853462169</v>
+        <v>326.5954772960343</v>
       </c>
       <c r="C17">
-        <v>44.15226414608404</v>
+        <v>43.0948185346268</v>
       </c>
       <c r="D17">
-        <v>47.76986446966652</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+        <v>44.15226414599128</v>
+      </c>
+      <c r="E17">
+        <v>47.76986446963259</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B18">
-        <v>38.85190256496871</v>
+        <v>339.6666784375417</v>
       </c>
       <c r="C18">
-        <v>29.87148193613448</v>
+        <v>38.85190256494272</v>
       </c>
       <c r="D18">
-        <v>38.95348699490175</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>29.8714819361439</v>
+      </c>
+      <c r="E18">
+        <v>38.95348699488206</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B19">
-        <v>67.58123710626089</v>
+        <v>1354.019733114447</v>
       </c>
       <c r="C19">
-        <v>53.54946630544881</v>
+        <v>67.58123710623826</v>
       </c>
       <c r="D19">
-        <v>61.99429322276653</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>53.54946630542669</v>
+      </c>
+      <c r="E19">
+        <v>61.99429322274226</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
       <c r="A20" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B20">
-        <v>67.31178111556743</v>
+        <v>991.3786815417525</v>
       </c>
       <c r="C20">
-        <v>68.28112211596651</v>
+        <v>67.31178111552296</v>
       </c>
       <c r="D20">
-        <v>92.44452950893114</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>68.28112211588208</v>
+      </c>
+      <c r="E20">
+        <v>92.44452950883532</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
       <c r="A21" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B21">
-        <v>46.84771038668232</v>
+        <v>521.1381763287859</v>
       </c>
       <c r="C21">
-        <v>35.31279684456659</v>
+        <v>46.84771038667119</v>
       </c>
       <c r="D21">
-        <v>45.20903183676453</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>35.31279684452836</v>
+      </c>
+      <c r="E21">
+        <v>45.20903183663867</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
       <c r="A22" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B22">
-        <v>93.02344139748631</v>
+        <v>596.8281229259455</v>
       </c>
       <c r="C22">
-        <v>77.46599869070562</v>
+        <v>93.02344139752938</v>
       </c>
       <c r="D22">
-        <v>85.68356792565694</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>77.46599869074397</v>
+      </c>
+      <c r="E22">
+        <v>85.68356792570471</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
       <c r="A23" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B23">
-        <v>38.26509245801047</v>
+        <v>405.3346029158617</v>
       </c>
       <c r="C23">
-        <v>41.88985110486191</v>
+        <v>38.26509245799004</v>
       </c>
       <c r="D23">
-        <v>44.34731748394536</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>41.88985110472335</v>
+      </c>
+      <c r="E23">
+        <v>44.34731748380294</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
       <c r="A24" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B24">
-        <v>100.4315316324218</v>
+        <v>1186.267588886151</v>
       </c>
       <c r="C24">
-        <v>72.19343092623272</v>
+        <v>100.431531632423</v>
       </c>
       <c r="D24">
-        <v>84.08847786114049</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>72.19343092620029</v>
+      </c>
+      <c r="E24">
+        <v>84.08847786102767</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
       <c r="A25" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B25">
-        <v>67.12230080674995</v>
+        <v>410.298117065353</v>
       </c>
       <c r="C25">
+        <v>67.12230080674809</v>
+      </c>
+      <c r="D25">
         <v>49.09541830964331</v>
       </c>
-      <c r="D25">
-        <v>61.46692305829972</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+      <c r="E25">
+        <v>61.46692305830179</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
       <c r="A26" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B26">
-        <v>71.00923507755903</v>
+        <v>447.6671197471101</v>
       </c>
       <c r="C26">
-        <v>53.08705790242317</v>
+        <v>71.00923507752924</v>
       </c>
       <c r="D26">
-        <v>63.07808737303417</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>53.08705790241478</v>
+      </c>
+      <c r="E26">
+        <v>63.07808737298774</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
       <c r="A27" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B27">
-        <v>101.0371283200779</v>
+        <v>929.3783877849733</v>
       </c>
       <c r="C27">
-        <v>114.5366229150276</v>
+        <v>101.0371283200816</v>
       </c>
       <c r="D27">
-        <v>105.4896392664067</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
+        <v>114.5366229150169</v>
+      </c>
+      <c r="E27">
+        <v>105.4896392664029</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
       <c r="A28" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B28">
-        <v>56.89450191495735</v>
+        <v>426.1295799969456</v>
       </c>
       <c r="C28">
-        <v>52.12475460087984</v>
+        <v>56.89450191494136</v>
       </c>
       <c r="D28">
-        <v>61.76496674166857</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>52.12475460083726</v>
+      </c>
+      <c r="E28">
+        <v>61.76496674163877</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
       <c r="A29" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B29">
-        <v>41.98678072010747</v>
+        <v>1419.372161462503</v>
       </c>
       <c r="C29">
-        <v>42.45393739373337</v>
+        <v>41.98678072011833</v>
       </c>
       <c r="D29">
-        <v>43.41874764962718</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>42.45393739372153</v>
+      </c>
+      <c r="E29">
+        <v>43.41874764959724</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
       <c r="A30" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B30">
-        <v>53.95826673108189</v>
+        <v>330.596707172608</v>
       </c>
       <c r="C30">
-        <v>52.06885433975418</v>
+        <v>53.95826673108377</v>
       </c>
       <c r="D30">
-        <v>61.41468415405209</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>52.06885433975778</v>
+      </c>
+      <c r="E30">
+        <v>61.41468415402727</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
       <c r="A31" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B31">
-        <v>20.30742737852825</v>
+        <v>413.8030996466928</v>
       </c>
       <c r="C31">
-        <v>33.4695595661413</v>
+        <v>20.3074273785397</v>
       </c>
       <c r="D31">
-        <v>34.22994905351453</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>33.46955956584317</v>
+      </c>
+      <c r="E31">
+        <v>34.22994905335962</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
       <c r="A32" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B32">
-        <v>54.31086965150902</v>
+        <v>697.3753143500774</v>
       </c>
       <c r="C32">
-        <v>39.37121963589789</v>
+        <v>54.31086965147864</v>
       </c>
       <c r="D32">
-        <v>48.55312312180118</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>39.37121963594342</v>
+      </c>
+      <c r="E32">
+        <v>48.55312312186906</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
       <c r="A33" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B33">
-        <v>55.69450903469122</v>
+        <v>212.8202866338569</v>
       </c>
       <c r="C33">
-        <v>41.46270304064971</v>
+        <v>55.69450903470215</v>
       </c>
       <c r="D33">
-        <v>51.47317528767589</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>41.46270304068764</v>
+      </c>
+      <c r="E33">
+        <v>51.47317528768707</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
       <c r="A34" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B34">
-        <v>22.28740813015425</v>
+        <v>421.6876558766994</v>
       </c>
       <c r="C34">
-        <v>21.11263260325514</v>
+        <v>22.28740813013517</v>
       </c>
       <c r="D34">
-        <v>24.11313449957503</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>21.11263260322524</v>
+      </c>
+      <c r="E34">
+        <v>24.11313449956261</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
       <c r="A35" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B35">
-        <v>88.20107318147582</v>
+        <v>562.8019973595708</v>
       </c>
       <c r="C35">
-        <v>86.11679745904493</v>
+        <v>88.20107318140838</v>
       </c>
       <c r="D35">
-        <v>87.37860948632166</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>86.11679745894931</v>
+      </c>
+      <c r="E35">
+        <v>87.37860948615324</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
       <c r="A36" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B36">
-        <v>22.03554878836278</v>
+        <v>342.1770307379289</v>
       </c>
       <c r="C36">
-        <v>17.36219749244167</v>
+        <v>22.03554878835553</v>
       </c>
       <c r="D36">
-        <v>23.42819494355437</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>17.36219749244129</v>
+      </c>
+      <c r="E36">
+        <v>23.42819494356659</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
       <c r="A37" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B37">
-        <v>74.10347248726494</v>
+        <v>426.0512010245577</v>
       </c>
       <c r="C37">
-        <v>53.70391856760934</v>
+        <v>74.10347248727022</v>
       </c>
       <c r="D37">
-        <v>68.2464213479399</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
+        <v>53.70391856758813</v>
+      </c>
+      <c r="E37">
+        <v>68.24642134780223</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
       <c r="A38" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B38">
-        <v>79.11076297330058</v>
+        <v>1936.844327880987</v>
       </c>
       <c r="C38">
-        <v>69.5278299877299</v>
+        <v>79.11076297330891</v>
       </c>
       <c r="D38">
-        <v>75.79658193176628</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>69.52782998771917</v>
+      </c>
+      <c r="E38">
+        <v>75.79658193177463</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
       <c r="A39" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B39">
-        <v>25.29035203060509</v>
+        <v>260.0043927545365</v>
       </c>
       <c r="C39">
-        <v>19.68737734295507</v>
+        <v>25.29035203061494</v>
       </c>
       <c r="D39">
-        <v>26.44260115651526</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>19.68737734294611</v>
+      </c>
+      <c r="E39">
+        <v>26.44260115651655</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
       <c r="A40" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B40">
-        <v>63.02333411551123</v>
+        <v>829.6906908578799</v>
       </c>
       <c r="C40">
-        <v>59.33478841644541</v>
+        <v>63.02333411553038</v>
       </c>
       <c r="D40">
-        <v>63.38613448100399</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>59.33478841633937</v>
+      </c>
+      <c r="E40">
+        <v>63.38613448084832</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
       <c r="A41" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B41">
-        <v>79.78742598024895</v>
+        <v>618.342669329618</v>
       </c>
       <c r="C41">
-        <v>69.89490723324111</v>
+        <v>79.78742598020486</v>
       </c>
       <c r="D41">
-        <v>76.26518976175447</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>69.8949072330656</v>
+      </c>
+      <c r="E41">
+        <v>76.26518976148519</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
       <c r="A42" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B42">
-        <v>68.25160556304937</v>
+        <v>488.6690554546882</v>
       </c>
       <c r="C42">
-        <v>67.58436042322373</v>
+        <v>68.25160556307674</v>
       </c>
       <c r="D42">
-        <v>65.41446644522435</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
+        <v>67.58436042359412</v>
+      </c>
+      <c r="E42">
+        <v>65.41446644539973</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
       <c r="A43" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B43">
-        <v>58.85049838786862</v>
+        <v>588.0566705187041</v>
       </c>
       <c r="C43">
-        <v>43.56834465144687</v>
+        <v>58.85049838781921</v>
       </c>
       <c r="D43">
-        <v>53.34876334769473</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>43.5683446514138</v>
+      </c>
+      <c r="E43">
+        <v>53.34876334766136</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
       <c r="A44" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B44">
-        <v>87.96341917200768</v>
+        <v>719.6872567631411</v>
       </c>
       <c r="C44">
-        <v>64.70282614072794</v>
+        <v>87.96341917194783</v>
       </c>
       <c r="D44">
-        <v>80.07231657604686</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>64.70282614086304</v>
+      </c>
+      <c r="E44">
+        <v>80.07231657602706</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
       <c r="A45" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B45">
-        <v>108.2144218459599</v>
+        <v>1731.983977473533</v>
       </c>
       <c r="C45">
-        <v>111.3209353718479</v>
+        <v>108.2144218458414</v>
       </c>
       <c r="D45">
-        <v>104.0616694796631</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4">
+        <v>111.3209353717376</v>
+      </c>
+      <c r="E45">
+        <v>104.0616694795829</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
       <c r="A46" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B46">
-        <v>55.51040738164549</v>
+        <v>455.9775730808453</v>
       </c>
       <c r="C46">
-        <v>51.95429109556157</v>
+        <v>55.51040738145008</v>
       </c>
       <c r="D46">
-        <v>51.59090314791123</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>51.95429109530109</v>
+      </c>
+      <c r="E46">
+        <v>51.59090314771571</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
       <c r="A47" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B47">
-        <v>44.86274329918177</v>
+        <v>450.554357753744</v>
       </c>
       <c r="C47">
-        <v>42.11541492421686</v>
+        <v>44.862743299159</v>
       </c>
       <c r="D47">
-        <v>46.9874526302014</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>42.11541492411132</v>
+      </c>
+      <c r="E47">
+        <v>46.9874526301828</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
       <c r="A48" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B48">
-        <v>69.22181872943298</v>
+        <v>752.0362394998376</v>
       </c>
       <c r="C48">
-        <v>50.62751318867323</v>
+        <v>69.22181872941093</v>
       </c>
       <c r="D48">
-        <v>60.89725693519265</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>50.62751318865614</v>
+      </c>
+      <c r="E48">
+        <v>60.89725693514195</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
       <c r="A49" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B49">
-        <v>92.25452429292844</v>
+        <v>1317.807314263048</v>
       </c>
       <c r="C49">
-        <v>82.97630886154334</v>
+        <v>92.25452429158</v>
       </c>
       <c r="D49">
-        <v>81.78421081842907</v>
+        <v>82.97630886027272</v>
+      </c>
+      <c r="E49">
+        <v>81.78421081656434</v>
       </c>
     </row>
   </sheetData>

--- a/footprints.xlsx
+++ b/footprints.xlsx
@@ -558,16 +558,16 @@
         <v>5</v>
       </c>
       <c r="B2">
-        <v>284.6765972570752</v>
+        <v>388.4923751165616</v>
       </c>
       <c r="C2">
-        <v>43.59163834559694</v>
+        <v>43.59163834560177</v>
       </c>
       <c r="D2">
-        <v>33.68700153881804</v>
+        <v>33.68700153880359</v>
       </c>
       <c r="E2">
-        <v>44.54200221931511</v>
+        <v>44.54200221930969</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -575,16 +575,16 @@
         <v>6</v>
       </c>
       <c r="B3">
-        <v>518.0198425545517</v>
+        <v>518.0198425543967</v>
       </c>
       <c r="C3">
-        <v>62.22037985067686</v>
+        <v>62.22037985068056</v>
       </c>
       <c r="D3">
-        <v>53.71445327132392</v>
+        <v>53.7144532713249</v>
       </c>
       <c r="E3">
-        <v>55.8389592380217</v>
+        <v>55.83895923802321</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -592,16 +592,16 @@
         <v>7</v>
       </c>
       <c r="B4">
-        <v>364.2302861827304</v>
+        <v>468.0460640422151</v>
       </c>
       <c r="C4">
-        <v>34.20132479537992</v>
+        <v>34.20132479536309</v>
       </c>
       <c r="D4">
-        <v>25.915580365872</v>
+        <v>25.91558036586306</v>
       </c>
       <c r="E4">
-        <v>33.93924910335491</v>
+        <v>33.9392491033462</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -609,16 +609,16 @@
         <v>8</v>
       </c>
       <c r="B5">
-        <v>474.6437395691016</v>
+        <v>578.4595174288725</v>
       </c>
       <c r="C5">
-        <v>65.31566886821176</v>
+        <v>65.31566886821444</v>
       </c>
       <c r="D5">
-        <v>47.48946758414109</v>
+        <v>47.48946758416076</v>
       </c>
       <c r="E5">
-        <v>57.72684498046377</v>
+        <v>57.72684498055637</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -626,16 +626,16 @@
         <v>9</v>
       </c>
       <c r="B6">
-        <v>259.8270179327704</v>
+        <v>259.8270179327843</v>
       </c>
       <c r="C6">
-        <v>21.59714398110639</v>
+        <v>21.59714398110793</v>
       </c>
       <c r="D6">
-        <v>20.82788481004555</v>
+        <v>20.8278848100501</v>
       </c>
       <c r="E6">
-        <v>21.60414120774525</v>
+        <v>21.60414120774523</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -643,16 +643,16 @@
         <v>10</v>
       </c>
       <c r="B7">
-        <v>390.8977054541473</v>
+        <v>484.9351290877767</v>
       </c>
       <c r="C7">
-        <v>45.44557868891179</v>
+        <v>45.44557868891081</v>
       </c>
       <c r="D7">
-        <v>38.06994933676269</v>
+        <v>38.06994933676876</v>
       </c>
       <c r="E7">
-        <v>43.57323984925813</v>
+        <v>43.57323984924309</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -660,16 +660,16 @@
         <v>11</v>
       </c>
       <c r="B8">
-        <v>199.7013080817844</v>
+        <v>303.5170859413475</v>
       </c>
       <c r="C8">
-        <v>31.17745687960738</v>
+        <v>31.1774568796022</v>
       </c>
       <c r="D8">
-        <v>33.41210555831133</v>
+        <v>33.41210555830569</v>
       </c>
       <c r="E8">
-        <v>32.96685159548559</v>
+        <v>32.96685159548003</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -677,16 +677,16 @@
         <v>12</v>
       </c>
       <c r="B9">
-        <v>1275.342995313817</v>
+        <v>1275.342995314052</v>
       </c>
       <c r="C9">
-        <v>83.12911655546095</v>
+        <v>83.12911655546529</v>
       </c>
       <c r="D9">
-        <v>80.39923753047741</v>
+        <v>80.39923753048181</v>
       </c>
       <c r="E9">
-        <v>85.10865184518454</v>
+        <v>85.10865184518801</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -694,16 +694,16 @@
         <v>13</v>
       </c>
       <c r="B10">
-        <v>741.2314766734587</v>
+        <v>845.0472545334205</v>
       </c>
       <c r="C10">
-        <v>70.58933020049169</v>
+        <v>70.58933020046436</v>
       </c>
       <c r="D10">
-        <v>75.37717886302011</v>
+        <v>75.37717886312265</v>
       </c>
       <c r="E10">
-        <v>92.55426945192988</v>
+        <v>92.5542694520135</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -711,16 +711,16 @@
         <v>14</v>
       </c>
       <c r="B11">
-        <v>501.8891685676523</v>
+        <v>605.7049464272162</v>
       </c>
       <c r="C11">
-        <v>84.36759528237536</v>
+        <v>84.36759528237296</v>
       </c>
       <c r="D11">
-        <v>72.35493180646012</v>
+        <v>72.35493180646326</v>
       </c>
       <c r="E11">
-        <v>79.32357377923196</v>
+        <v>79.3235737793982</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -728,16 +728,16 @@
         <v>15</v>
       </c>
       <c r="B12">
-        <v>351.9540897800937</v>
+        <v>455.7698676395871</v>
       </c>
       <c r="C12">
-        <v>52.9471424041302</v>
+        <v>52.94714240412778</v>
       </c>
       <c r="D12">
-        <v>40.07183878366355</v>
+        <v>40.07183878365218</v>
       </c>
       <c r="E12">
-        <v>50.09837820875889</v>
+        <v>50.09837820876529</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -745,16 +745,16 @@
         <v>16</v>
       </c>
       <c r="B13">
-        <v>544.8494618273347</v>
+        <v>648.6652396878283</v>
       </c>
       <c r="C13">
-        <v>41.3532861652487</v>
+        <v>41.35328616525346</v>
       </c>
       <c r="D13">
-        <v>49.2480108340549</v>
+        <v>49.24801083417817</v>
       </c>
       <c r="E13">
-        <v>50.81675406896314</v>
+        <v>50.81675406908651</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -762,16 +762,16 @@
         <v>17</v>
       </c>
       <c r="B14">
-        <v>494.2776288825972</v>
+        <v>598.0934067421126</v>
       </c>
       <c r="C14">
-        <v>56.91502147570706</v>
+        <v>56.91502147572597</v>
       </c>
       <c r="D14">
-        <v>52.67736619464497</v>
+        <v>52.67736619469962</v>
       </c>
       <c r="E14">
-        <v>58.63790063066659</v>
+        <v>58.63790063067105</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -779,16 +779,16 @@
         <v>18</v>
       </c>
       <c r="B15">
-        <v>321.2114439127073</v>
+        <v>425.0272217722992</v>
       </c>
       <c r="C15">
-        <v>27.39198973863135</v>
+        <v>27.39198973864525</v>
       </c>
       <c r="D15">
-        <v>21.61905002086628</v>
+        <v>21.6190500208669</v>
       </c>
       <c r="E15">
-        <v>29.57902700891609</v>
+        <v>29.57902700892549</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -796,16 +796,16 @@
         <v>19</v>
       </c>
       <c r="B16">
-        <v>374.3744301228441</v>
+        <v>478.1902079824898</v>
       </c>
       <c r="C16">
-        <v>42.30873323248083</v>
+        <v>42.30873323249877</v>
       </c>
       <c r="D16">
-        <v>36.76159686315025</v>
+        <v>36.76159686314174</v>
       </c>
       <c r="E16">
-        <v>39.92508584650475</v>
+        <v>39.92508584652902</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -813,16 +813,16 @@
         <v>20</v>
       </c>
       <c r="B17">
-        <v>326.5954772960343</v>
+        <v>430.4112551555799</v>
       </c>
       <c r="C17">
-        <v>43.0948185346268</v>
+        <v>43.09481853461502</v>
       </c>
       <c r="D17">
-        <v>44.15226414599128</v>
+        <v>44.15226414599827</v>
       </c>
       <c r="E17">
-        <v>47.76986446963259</v>
+        <v>47.7698644696256</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -830,16 +830,16 @@
         <v>21</v>
       </c>
       <c r="B18">
-        <v>339.6666784375417</v>
+        <v>443.4824562970783</v>
       </c>
       <c r="C18">
-        <v>38.85190256494272</v>
+        <v>38.85190256494937</v>
       </c>
       <c r="D18">
-        <v>29.8714819361439</v>
+        <v>29.87148193615771</v>
       </c>
       <c r="E18">
-        <v>38.95348699488206</v>
+        <v>38.95348699489473</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -847,16 +847,16 @@
         <v>22</v>
       </c>
       <c r="B19">
-        <v>1354.019733114447</v>
+        <v>1457.835510975441</v>
       </c>
       <c r="C19">
-        <v>67.58123710623826</v>
+        <v>67.58123710625166</v>
       </c>
       <c r="D19">
-        <v>53.54946630542669</v>
+        <v>53.54946630543485</v>
       </c>
       <c r="E19">
-        <v>61.99429322274226</v>
+        <v>61.99429322274973</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -864,16 +864,16 @@
         <v>23</v>
       </c>
       <c r="B20">
-        <v>991.3786815417525</v>
+        <v>1095.19445940033</v>
       </c>
       <c r="C20">
-        <v>67.31178111552296</v>
+        <v>67.31178111548046</v>
       </c>
       <c r="D20">
-        <v>68.28112211588208</v>
+        <v>68.28112211589533</v>
       </c>
       <c r="E20">
-        <v>92.44452950883532</v>
+        <v>92.44452950881254</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -881,16 +881,16 @@
         <v>24</v>
       </c>
       <c r="B21">
-        <v>521.1381763287859</v>
+        <v>561.3333231381108</v>
       </c>
       <c r="C21">
-        <v>46.84771038667119</v>
+        <v>46.8477103866521</v>
       </c>
       <c r="D21">
-        <v>35.31279684452836</v>
+        <v>35.31279684454258</v>
       </c>
       <c r="E21">
-        <v>45.20903183663867</v>
+        <v>45.20903183671179</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -898,16 +898,16 @@
         <v>25</v>
       </c>
       <c r="B22">
-        <v>596.8281229259455</v>
+        <v>596.8281229258257</v>
       </c>
       <c r="C22">
-        <v>93.02344139752938</v>
+        <v>93.02344139744829</v>
       </c>
       <c r="D22">
-        <v>77.46599869074397</v>
+        <v>77.4659986906784</v>
       </c>
       <c r="E22">
-        <v>85.68356792570471</v>
+        <v>85.68356792564063</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -915,16 +915,16 @@
         <v>26</v>
       </c>
       <c r="B23">
-        <v>405.3346029158617</v>
+        <v>509.1503807757011</v>
       </c>
       <c r="C23">
-        <v>38.26509245799004</v>
+        <v>38.26509245798609</v>
       </c>
       <c r="D23">
-        <v>41.88985110472335</v>
+        <v>41.88985110479332</v>
       </c>
       <c r="E23">
-        <v>44.34731748380294</v>
+        <v>44.34731748386405</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -932,16 +932,16 @@
         <v>27</v>
       </c>
       <c r="B24">
-        <v>1186.267588886151</v>
+        <v>1186.267588886063</v>
       </c>
       <c r="C24">
-        <v>100.431531632423</v>
+        <v>100.4315316323987</v>
       </c>
       <c r="D24">
-        <v>72.19343092620029</v>
+        <v>72.19343092623069</v>
       </c>
       <c r="E24">
-        <v>84.08847786102767</v>
+        <v>84.08847786107869</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -949,16 +949,16 @@
         <v>28</v>
       </c>
       <c r="B25">
-        <v>410.298117065353</v>
+        <v>514.1138949249718</v>
       </c>
       <c r="C25">
-        <v>67.12230080674809</v>
+        <v>67.12230080675813</v>
       </c>
       <c r="D25">
-        <v>49.09541830964331</v>
+        <v>49.09541830966872</v>
       </c>
       <c r="E25">
-        <v>61.46692305830179</v>
+        <v>61.46692305832291</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -966,16 +966,16 @@
         <v>29</v>
       </c>
       <c r="B26">
-        <v>447.6671197471101</v>
+        <v>447.6671197470168</v>
       </c>
       <c r="C26">
-        <v>71.00923507752924</v>
+        <v>71.00923507754622</v>
       </c>
       <c r="D26">
-        <v>53.08705790241478</v>
+        <v>53.08705790243391</v>
       </c>
       <c r="E26">
-        <v>63.07808737298774</v>
+        <v>63.0780873730271</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -983,16 +983,16 @@
         <v>30</v>
       </c>
       <c r="B27">
-        <v>929.3783877849733</v>
+        <v>884.1973040607293</v>
       </c>
       <c r="C27">
-        <v>101.0371283200816</v>
+        <v>101.0371283201201</v>
       </c>
       <c r="D27">
-        <v>114.5366229150169</v>
+        <v>114.5366229150838</v>
       </c>
       <c r="E27">
-        <v>105.4896392664029</v>
+        <v>105.4896392664204</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1000,16 +1000,16 @@
         <v>31</v>
       </c>
       <c r="B28">
-        <v>426.1295799969456</v>
+        <v>529.9453578562398</v>
       </c>
       <c r="C28">
-        <v>56.89450191494136</v>
+        <v>56.89450191489968</v>
       </c>
       <c r="D28">
-        <v>52.12475460083726</v>
+        <v>52.1247546008164</v>
       </c>
       <c r="E28">
-        <v>61.76496674163877</v>
+        <v>61.76496674162971</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1017,16 +1017,16 @@
         <v>32</v>
       </c>
       <c r="B29">
-        <v>1419.372161462503</v>
+        <v>1523.187939312996</v>
       </c>
       <c r="C29">
-        <v>41.98678072011833</v>
+        <v>41.98678072010981</v>
       </c>
       <c r="D29">
-        <v>42.45393739372153</v>
+        <v>42.4539373937199</v>
       </c>
       <c r="E29">
-        <v>43.41874764959724</v>
+        <v>43.41874764960666</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1034,16 +1034,16 @@
         <v>33</v>
       </c>
       <c r="B30">
-        <v>330.596707172608</v>
+        <v>434.4124850321304</v>
       </c>
       <c r="C30">
-        <v>53.95826673108377</v>
+        <v>53.95826673104601</v>
       </c>
       <c r="D30">
-        <v>52.06885433975778</v>
+        <v>52.06885433977639</v>
       </c>
       <c r="E30">
-        <v>61.41468415402727</v>
+        <v>61.41468415394215</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1051,16 +1051,16 @@
         <v>34</v>
       </c>
       <c r="B31">
-        <v>413.8030996466928</v>
+        <v>517.61887750635</v>
       </c>
       <c r="C31">
-        <v>20.3074273785397</v>
+        <v>20.3074273785168</v>
       </c>
       <c r="D31">
-        <v>33.46955956584317</v>
+        <v>33.46955956594243</v>
       </c>
       <c r="E31">
-        <v>34.22994905335962</v>
+        <v>34.22994905338885</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1068,16 +1068,16 @@
         <v>35</v>
       </c>
       <c r="B32">
-        <v>697.3753143500774</v>
+        <v>791.412737983945</v>
       </c>
       <c r="C32">
-        <v>54.31086965147864</v>
+        <v>54.31086965152703</v>
       </c>
       <c r="D32">
-        <v>39.37121963594342</v>
+        <v>39.37121963598295</v>
       </c>
       <c r="E32">
-        <v>48.55312312186906</v>
+        <v>48.55312312186014</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1085,16 +1085,16 @@
         <v>36</v>
       </c>
       <c r="B33">
-        <v>212.8202866338569</v>
+        <v>316.6360644932037</v>
       </c>
       <c r="C33">
-        <v>55.69450903470215</v>
+        <v>55.69450903471003</v>
       </c>
       <c r="D33">
-        <v>41.46270304068764</v>
+        <v>41.46270304068285</v>
       </c>
       <c r="E33">
-        <v>51.47317528768707</v>
+        <v>51.47317528769453</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1102,16 +1102,16 @@
         <v>37</v>
       </c>
       <c r="B34">
-        <v>421.6876558766994</v>
+        <v>525.5034337374731</v>
       </c>
       <c r="C34">
-        <v>22.28740813013517</v>
+        <v>22.28740813016123</v>
       </c>
       <c r="D34">
-        <v>21.11263260322524</v>
+        <v>21.1126326032651</v>
       </c>
       <c r="E34">
-        <v>24.11313449956261</v>
+        <v>24.11313449959363</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1119,16 +1119,16 @@
         <v>38</v>
       </c>
       <c r="B35">
-        <v>562.8019973595708</v>
+        <v>527.6285570143186</v>
       </c>
       <c r="C35">
-        <v>88.20107318140838</v>
+        <v>88.20107318147605</v>
       </c>
       <c r="D35">
-        <v>86.11679745894931</v>
+        <v>86.11679745900358</v>
       </c>
       <c r="E35">
-        <v>87.37860948615324</v>
+        <v>87.37860948625077</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1136,16 +1136,16 @@
         <v>39</v>
       </c>
       <c r="B36">
-        <v>342.1770307379289</v>
+        <v>445.9928085998455</v>
       </c>
       <c r="C36">
-        <v>22.03554878835553</v>
+        <v>22.03554878838123</v>
       </c>
       <c r="D36">
-        <v>17.36219749244129</v>
+        <v>17.36219749246947</v>
       </c>
       <c r="E36">
-        <v>23.42819494356659</v>
+        <v>23.42819494360937</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1153,16 +1153,16 @@
         <v>40</v>
       </c>
       <c r="B37">
-        <v>426.0512010245577</v>
+        <v>529.8669788845068</v>
       </c>
       <c r="C37">
-        <v>74.10347248727022</v>
+        <v>74.10347248717913</v>
       </c>
       <c r="D37">
-        <v>53.70391856758813</v>
+        <v>53.70391856766973</v>
       </c>
       <c r="E37">
-        <v>68.24642134780223</v>
+        <v>68.24642134791767</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1170,16 +1170,16 @@
         <v>41</v>
       </c>
       <c r="B38">
-        <v>1936.844327880987</v>
+        <v>1936.844327881236</v>
       </c>
       <c r="C38">
-        <v>79.11076297330891</v>
+        <v>79.11076297328786</v>
       </c>
       <c r="D38">
-        <v>69.52782998771917</v>
+        <v>69.52782998775976</v>
       </c>
       <c r="E38">
-        <v>75.79658193177463</v>
+        <v>75.79658193177536</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1187,16 +1187,16 @@
         <v>42</v>
       </c>
       <c r="B39">
-        <v>260.0043927545365</v>
+        <v>363.8201706142188</v>
       </c>
       <c r="C39">
-        <v>25.29035203061494</v>
+        <v>25.29035203058225</v>
       </c>
       <c r="D39">
-        <v>19.68737734294611</v>
+        <v>19.68737734295727</v>
       </c>
       <c r="E39">
-        <v>26.44260115651655</v>
+        <v>26.44260115650313</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1204,16 +1204,16 @@
         <v>43</v>
       </c>
       <c r="B40">
-        <v>829.6906908578799</v>
+        <v>933.5064687178179</v>
       </c>
       <c r="C40">
-        <v>63.02333411553038</v>
+        <v>63.02333411549419</v>
       </c>
       <c r="D40">
-        <v>59.33478841633937</v>
+        <v>59.33478841640406</v>
       </c>
       <c r="E40">
-        <v>63.38613448084832</v>
+        <v>63.38613448092865</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1221,16 +1221,16 @@
         <v>44</v>
       </c>
       <c r="B41">
-        <v>618.342669329618</v>
+        <v>722.1584471887178</v>
       </c>
       <c r="C41">
-        <v>79.78742598020486</v>
+        <v>79.78742598023516</v>
       </c>
       <c r="D41">
-        <v>69.8949072330656</v>
+        <v>69.89490723317864</v>
       </c>
       <c r="E41">
-        <v>76.26518976148519</v>
+        <v>76.26518976162964</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1238,16 +1238,16 @@
         <v>45</v>
       </c>
       <c r="B42">
-        <v>488.6690554546882</v>
+        <v>592.4848333134569</v>
       </c>
       <c r="C42">
-        <v>68.25160556307674</v>
+        <v>68.25160556304546</v>
       </c>
       <c r="D42">
-        <v>67.58436042359412</v>
+        <v>67.5843604234488</v>
       </c>
       <c r="E42">
-        <v>65.41446644539973</v>
+        <v>65.41446644528541</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1255,16 +1255,16 @@
         <v>46</v>
       </c>
       <c r="B43">
-        <v>588.0566705187041</v>
+        <v>603.4844419249899</v>
       </c>
       <c r="C43">
-        <v>58.85049838781921</v>
+        <v>58.85049838779362</v>
       </c>
       <c r="D43">
-        <v>43.5683446514138</v>
+        <v>43.56834465146427</v>
       </c>
       <c r="E43">
-        <v>53.34876334766136</v>
+        <v>53.34876334766898</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1272,16 +1272,16 @@
         <v>47</v>
       </c>
       <c r="B44">
-        <v>719.6872567631411</v>
+        <v>719.6872567625595</v>
       </c>
       <c r="C44">
-        <v>87.96341917194783</v>
+        <v>87.9634191720392</v>
       </c>
       <c r="D44">
-        <v>64.70282614086304</v>
+        <v>64.70282614070223</v>
       </c>
       <c r="E44">
-        <v>80.07231657602706</v>
+        <v>80.07231657600244</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1289,16 +1289,16 @@
         <v>48</v>
       </c>
       <c r="B45">
-        <v>1731.983977473533</v>
+        <v>1835.799755325969</v>
       </c>
       <c r="C45">
-        <v>108.2144218458414</v>
+        <v>108.2144218455657</v>
       </c>
       <c r="D45">
-        <v>111.3209353717376</v>
+        <v>111.3209353714903</v>
       </c>
       <c r="E45">
-        <v>104.0616694795829</v>
+        <v>104.0616694793173</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1306,16 +1306,16 @@
         <v>49</v>
       </c>
       <c r="B46">
-        <v>455.9775730808453</v>
+        <v>455.9775730808882</v>
       </c>
       <c r="C46">
-        <v>55.51040738145008</v>
+        <v>55.51040738142731</v>
       </c>
       <c r="D46">
-        <v>51.95429109530109</v>
+        <v>51.95429109529429</v>
       </c>
       <c r="E46">
-        <v>51.59090314771571</v>
+        <v>51.5909031476679</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1323,16 +1323,16 @@
         <v>50</v>
       </c>
       <c r="B47">
-        <v>450.554357753744</v>
+        <v>450.5543577544924</v>
       </c>
       <c r="C47">
-        <v>44.862743299159</v>
+        <v>44.86274329914836</v>
       </c>
       <c r="D47">
-        <v>42.11541492411132</v>
+        <v>42.11541492418247</v>
       </c>
       <c r="E47">
-        <v>46.9874526301828</v>
+        <v>46.98745263020122</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1340,16 +1340,16 @@
         <v>51</v>
       </c>
       <c r="B48">
-        <v>752.0362394998376</v>
+        <v>752.0362394997061</v>
       </c>
       <c r="C48">
-        <v>69.22181872941093</v>
+        <v>69.22181872943801</v>
       </c>
       <c r="D48">
-        <v>50.62751318865614</v>
+        <v>50.6275131885953</v>
       </c>
       <c r="E48">
-        <v>60.89725693514195</v>
+        <v>60.89725693517992</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1357,16 +1357,16 @@
         <v>52</v>
       </c>
       <c r="B49">
-        <v>1317.807314263048</v>
+        <v>1317.807314289873</v>
       </c>
       <c r="C49">
-        <v>92.25452429158</v>
+        <v>92.25452429246583</v>
       </c>
       <c r="D49">
-        <v>82.97630886027272</v>
+        <v>82.97630886094512</v>
       </c>
       <c r="E49">
-        <v>81.78421081656434</v>
+        <v>81.78421081771282</v>
       </c>
     </row>
   </sheetData>
